--- a/LocusTags and PAO1 Loci ID's.xlsx
+++ b/LocusTags and PAO1 Loci ID's.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="1563">
   <si>
     <t>locus</t>
   </si>
@@ -2940,6 +2940,1779 @@
   </si>
   <si>
     <t>PA3809 (PI: 75.9%, PC: 66.1%)</t>
+  </si>
+  <si>
+    <t>GIY05_RS10325</t>
+  </si>
+  <si>
+    <t>GIY05_RS10530</t>
+  </si>
+  <si>
+    <t>GIY05_RS11180</t>
+  </si>
+  <si>
+    <t>GIY05_RS11920</t>
+  </si>
+  <si>
+    <t>GIY05_RS11965</t>
+  </si>
+  <si>
+    <t>GIY05_RS12010</t>
+  </si>
+  <si>
+    <t>GIY05_RS12370</t>
+  </si>
+  <si>
+    <t>GIY05_RS12830</t>
+  </si>
+  <si>
+    <t>GIY05_RS12835</t>
+  </si>
+  <si>
+    <t>GIY05_RS12840</t>
+  </si>
+  <si>
+    <t>GIY05_RS12850</t>
+  </si>
+  <si>
+    <t>GIY05_RS12870</t>
+  </si>
+  <si>
+    <t>GIY05_RS12880</t>
+  </si>
+  <si>
+    <t>GIY05_RS12900</t>
+  </si>
+  <si>
+    <t>GIY05_RS13050</t>
+  </si>
+  <si>
+    <t>GIY05_RS13060</t>
+  </si>
+  <si>
+    <t>GIY05_RS13065</t>
+  </si>
+  <si>
+    <t>GIY05_RS13090</t>
+  </si>
+  <si>
+    <t>GIY05_RS13590</t>
+  </si>
+  <si>
+    <t>GIY05_RS13685</t>
+  </si>
+  <si>
+    <t>GIY05_RS14340</t>
+  </si>
+  <si>
+    <t>GIY05_RS14345</t>
+  </si>
+  <si>
+    <t>GIY05_RS14355</t>
+  </si>
+  <si>
+    <t>GIY05_RS15615</t>
+  </si>
+  <si>
+    <t>GIY05_RS15625</t>
+  </si>
+  <si>
+    <t>GIY05_RS17255</t>
+  </si>
+  <si>
+    <t>GIY05_RS17515</t>
+  </si>
+  <si>
+    <t>GIY05_RS17610</t>
+  </si>
+  <si>
+    <t>GIY05_RS17875</t>
+  </si>
+  <si>
+    <t>GIY05_RS18120</t>
+  </si>
+  <si>
+    <t>GIY05_RS18125</t>
+  </si>
+  <si>
+    <t>GIY05_RS18130</t>
+  </si>
+  <si>
+    <t>GIY05_RS18150</t>
+  </si>
+  <si>
+    <t>GIY05_RS18275</t>
+  </si>
+  <si>
+    <t>GIY05_RS18520</t>
+  </si>
+  <si>
+    <t>GIY05_RS18765</t>
+  </si>
+  <si>
+    <t>GIY05_RS19130</t>
+  </si>
+  <si>
+    <t>GIY05_RS19380</t>
+  </si>
+  <si>
+    <t>GIY05_RS19460</t>
+  </si>
+  <si>
+    <t>GIY05_RS19465</t>
+  </si>
+  <si>
+    <t>GIY05_RS19860</t>
+  </si>
+  <si>
+    <t>GIY05_RS20425</t>
+  </si>
+  <si>
+    <t>GIY05_RS20515</t>
+  </si>
+  <si>
+    <t>GIY05_RS21210</t>
+  </si>
+  <si>
+    <t>GIY05_RS21490</t>
+  </si>
+  <si>
+    <t>GIY05_RS21680</t>
+  </si>
+  <si>
+    <t>GIY05_RS21685</t>
+  </si>
+  <si>
+    <t>GIY05_RS21695</t>
+  </si>
+  <si>
+    <t>GIY05_RS21700</t>
+  </si>
+  <si>
+    <t>GIY05_RS21705</t>
+  </si>
+  <si>
+    <t>GIY05_RS21780</t>
+  </si>
+  <si>
+    <t>GIY05_RS21785</t>
+  </si>
+  <si>
+    <t>GIY05_RS21790</t>
+  </si>
+  <si>
+    <t>GIY05_RS21810</t>
+  </si>
+  <si>
+    <t>GIY05_RS21815</t>
+  </si>
+  <si>
+    <t>GIY05_RS21820</t>
+  </si>
+  <si>
+    <t>GIY05_RS21825</t>
+  </si>
+  <si>
+    <t>GIY05_RS22240</t>
+  </si>
+  <si>
+    <t>GIY05_RS22280</t>
+  </si>
+  <si>
+    <t>GIY05_RS22310</t>
+  </si>
+  <si>
+    <t>GIY05_RS22435</t>
+  </si>
+  <si>
+    <t>GIY05_RS22440</t>
+  </si>
+  <si>
+    <t>GIY05_RS22645</t>
+  </si>
+  <si>
+    <t>GIY05_RS23240</t>
+  </si>
+  <si>
+    <t>GIY05_RS23370</t>
+  </si>
+  <si>
+    <t>GIY05_RS23920</t>
+  </si>
+  <si>
+    <t>GIY05_RS23925</t>
+  </si>
+  <si>
+    <t>GIY05_RS24420</t>
+  </si>
+  <si>
+    <t>GIY05_RS24450</t>
+  </si>
+  <si>
+    <t>GIY05_RS24505</t>
+  </si>
+  <si>
+    <t>GIY05_RS24815</t>
+  </si>
+  <si>
+    <t>GIY05_RS24825</t>
+  </si>
+  <si>
+    <t>GIY05_RS25360</t>
+  </si>
+  <si>
+    <t>GIY05_RS25365</t>
+  </si>
+  <si>
+    <t>GIY05_RS25515</t>
+  </si>
+  <si>
+    <t>GIY05_RS25550</t>
+  </si>
+  <si>
+    <t>GIY05_RS25555</t>
+  </si>
+  <si>
+    <t>GIY05_RS25640</t>
+  </si>
+  <si>
+    <t>GIY05_RS25645</t>
+  </si>
+  <si>
+    <t>GIY05_RS25650</t>
+  </si>
+  <si>
+    <t>GIY05_RS25655</t>
+  </si>
+  <si>
+    <t>GIY05_RS25660</t>
+  </si>
+  <si>
+    <t>GIY05_RS25665</t>
+  </si>
+  <si>
+    <t>GIY05_RS25670</t>
+  </si>
+  <si>
+    <t>GIY05_RS25675</t>
+  </si>
+  <si>
+    <t>GIY05_RS25680</t>
+  </si>
+  <si>
+    <t>GIY05_RS25685</t>
+  </si>
+  <si>
+    <t>GIY05_RS25695</t>
+  </si>
+  <si>
+    <t>GIY05_RS25700</t>
+  </si>
+  <si>
+    <t>GIY05_RS25705</t>
+  </si>
+  <si>
+    <t>GIY05_RS25710</t>
+  </si>
+  <si>
+    <t>GIY05_RS25715</t>
+  </si>
+  <si>
+    <t>GIY05_RS25720</t>
+  </si>
+  <si>
+    <t>GIY05_RS25725</t>
+  </si>
+  <si>
+    <t>GIY05_RS25730</t>
+  </si>
+  <si>
+    <t>GIY05_RS25735</t>
+  </si>
+  <si>
+    <t>GIY05_RS25750</t>
+  </si>
+  <si>
+    <t>GIY05_RS25755</t>
+  </si>
+  <si>
+    <t>GIY05_RS25760</t>
+  </si>
+  <si>
+    <t>GIY05_RS25765</t>
+  </si>
+  <si>
+    <t>GIY05_RS25770</t>
+  </si>
+  <si>
+    <t>GIY05_RS25775</t>
+  </si>
+  <si>
+    <t>GIY05_RS25785</t>
+  </si>
+  <si>
+    <t>GIY05_RS25795</t>
+  </si>
+  <si>
+    <t>GIY05_RS25800</t>
+  </si>
+  <si>
+    <t>GIY05_RS25810</t>
+  </si>
+  <si>
+    <t>GIY05_RS25815</t>
+  </si>
+  <si>
+    <t>GIY05_RS25830</t>
+  </si>
+  <si>
+    <t>GIY05_RS25835</t>
+  </si>
+  <si>
+    <t>GIY05_RS25840</t>
+  </si>
+  <si>
+    <t>GIY05_RS25850</t>
+  </si>
+  <si>
+    <t>GIY05_RS25855</t>
+  </si>
+  <si>
+    <t>GIY05_RS25860</t>
+  </si>
+  <si>
+    <t>GIY05_RS25865</t>
+  </si>
+  <si>
+    <t>GIY05_RS25870</t>
+  </si>
+  <si>
+    <t>GIY05_RS25880</t>
+  </si>
+  <si>
+    <t>GIY05_RS25885</t>
+  </si>
+  <si>
+    <t>GIY05_RS25890</t>
+  </si>
+  <si>
+    <t>GIY05_RS25895</t>
+  </si>
+  <si>
+    <t>GIY05_RS25900</t>
+  </si>
+  <si>
+    <t>GIY05_RS25905</t>
+  </si>
+  <si>
+    <t>GIY05_RS25910</t>
+  </si>
+  <si>
+    <t>GIY05_RS25915</t>
+  </si>
+  <si>
+    <t>GIY05_RS25920</t>
+  </si>
+  <si>
+    <t>GIY05_RS25925</t>
+  </si>
+  <si>
+    <t>GIY05_RS25930</t>
+  </si>
+  <si>
+    <t>GIY05_RS25935</t>
+  </si>
+  <si>
+    <t>GIY05_RS25940</t>
+  </si>
+  <si>
+    <t>GIY05_RS25945</t>
+  </si>
+  <si>
+    <t>GIY05_RS25950</t>
+  </si>
+  <si>
+    <t>GIY05_RS25955</t>
+  </si>
+  <si>
+    <t>GIY05_RS25960</t>
+  </si>
+  <si>
+    <t>GIY05_RS25995</t>
+  </si>
+  <si>
+    <t>GIY05_RS26000</t>
+  </si>
+  <si>
+    <t>GIY05_RS26005</t>
+  </si>
+  <si>
+    <t>GIY05_RS26020</t>
+  </si>
+  <si>
+    <t>GIY05_RS26025</t>
+  </si>
+  <si>
+    <t>GIY05_RS26035</t>
+  </si>
+  <si>
+    <t>GIY05_RS26045</t>
+  </si>
+  <si>
+    <t>GIY05_RS26050</t>
+  </si>
+  <si>
+    <t>GIY05_RS26055</t>
+  </si>
+  <si>
+    <t>GIY05_RS26060</t>
+  </si>
+  <si>
+    <t>GIY05_RS26075</t>
+  </si>
+  <si>
+    <t>GIY05_RS26080</t>
+  </si>
+  <si>
+    <t>GIY05_RS26085</t>
+  </si>
+  <si>
+    <t>GIY05_RS26090</t>
+  </si>
+  <si>
+    <t>GIY05_RS26095</t>
+  </si>
+  <si>
+    <t>GIY05_RS26100</t>
+  </si>
+  <si>
+    <t>GIY05_RS26105</t>
+  </si>
+  <si>
+    <t>GIY05_RS26110</t>
+  </si>
+  <si>
+    <t>GIY05_RS26115</t>
+  </si>
+  <si>
+    <t>GIY05_RS26120</t>
+  </si>
+  <si>
+    <t>GIY05_RS26125</t>
+  </si>
+  <si>
+    <t>GIY05_RS26150</t>
+  </si>
+  <si>
+    <t>GIY05_RS26165</t>
+  </si>
+  <si>
+    <t>GIY05_RS26170</t>
+  </si>
+  <si>
+    <t>GIY05_RS26220</t>
+  </si>
+  <si>
+    <t>GIY05_RS26225</t>
+  </si>
+  <si>
+    <t>GIY05_RS26230</t>
+  </si>
+  <si>
+    <t>GIY05_RS26385</t>
+  </si>
+  <si>
+    <t>GIY05_RS26460</t>
+  </si>
+  <si>
+    <t>GIY05_RS26680</t>
+  </si>
+  <si>
+    <t>GIY05_RS26685</t>
+  </si>
+  <si>
+    <t>GIY05_RS26725</t>
+  </si>
+  <si>
+    <t>GIY05_RS26780</t>
+  </si>
+  <si>
+    <t>GIY05_RS26875</t>
+  </si>
+  <si>
+    <t>GIY05_RS26915</t>
+  </si>
+  <si>
+    <t>GIY05_RS26920</t>
+  </si>
+  <si>
+    <t>GIY05_RS26925</t>
+  </si>
+  <si>
+    <t>GIY05_RS26990</t>
+  </si>
+  <si>
+    <t>GIY05_RS27260</t>
+  </si>
+  <si>
+    <t>GIY05_RS27335</t>
+  </si>
+  <si>
+    <t>GIY05_RS27340</t>
+  </si>
+  <si>
+    <t>GIY05_RS27370</t>
+  </si>
+  <si>
+    <t>GIY05_RS27890</t>
+  </si>
+  <si>
+    <t>GIY05_RS28925</t>
+  </si>
+  <si>
+    <t>GIY05_RS28965</t>
+  </si>
+  <si>
+    <t>GIY05_RS28970</t>
+  </si>
+  <si>
+    <t>GIY05_RS29060</t>
+  </si>
+  <si>
+    <t>GIY05_RS29385</t>
+  </si>
+  <si>
+    <t>GIY05_RS29565</t>
+  </si>
+  <si>
+    <t>GIY05_RS29575</t>
+  </si>
+  <si>
+    <t>GIY05_RS29605</t>
+  </si>
+  <si>
+    <t>GIY05_RS30320</t>
+  </si>
+  <si>
+    <t>GIY05_RS30325</t>
+  </si>
+  <si>
+    <t>GIY05_RS30845</t>
+  </si>
+  <si>
+    <t>GIY05_RS31520</t>
+  </si>
+  <si>
+    <t>GIY05_RS31655</t>
+  </si>
+  <si>
+    <t>GIY05_RS32040</t>
+  </si>
+  <si>
+    <t>GIY05_RS32045</t>
+  </si>
+  <si>
+    <t>GIY05_RS32050</t>
+  </si>
+  <si>
+    <t>GIY05_RS32070</t>
+  </si>
+  <si>
+    <t>GIY05_RS32075</t>
+  </si>
+  <si>
+    <t>GIY05_RS32085</t>
+  </si>
+  <si>
+    <t>GIY05_RS32090</t>
+  </si>
+  <si>
+    <t>GIY05_RS32325</t>
+  </si>
+  <si>
+    <t>GIY05_RS32600</t>
+  </si>
+  <si>
+    <t>GIY05_RS32830</t>
+  </si>
+  <si>
+    <t>GIY05_RS33320</t>
+  </si>
+  <si>
+    <t>GIY05_RS33325</t>
+  </si>
+  <si>
+    <t>GIY05_RS33735</t>
+  </si>
+  <si>
+    <t>GIY05_RS33955</t>
+  </si>
+  <si>
+    <t>GIY05_RS34340</t>
+  </si>
+  <si>
+    <t>GIY05_RS09850</t>
+  </si>
+  <si>
+    <t>GIY05_RS09840</t>
+  </si>
+  <si>
+    <t>GIY05_RS09835</t>
+  </si>
+  <si>
+    <t>GIY05_RS09825</t>
+  </si>
+  <si>
+    <t>GIY05_RS09820</t>
+  </si>
+  <si>
+    <t>GIY05_RS09675</t>
+  </si>
+  <si>
+    <t>GIY05_RS09665</t>
+  </si>
+  <si>
+    <t>GIY05_RS09390</t>
+  </si>
+  <si>
+    <t>GIY05_RS08900</t>
+  </si>
+  <si>
+    <t>GIY05_RS08860</t>
+  </si>
+  <si>
+    <t>GIY05_RS08835</t>
+  </si>
+  <si>
+    <t>GIY05_RS08770</t>
+  </si>
+  <si>
+    <t>GIY05_RS08560</t>
+  </si>
+  <si>
+    <t>GIY05_RS08555</t>
+  </si>
+  <si>
+    <t>GIY05_RS08375</t>
+  </si>
+  <si>
+    <t>GIY05_RS08335</t>
+  </si>
+  <si>
+    <t>GIY05_RS08330</t>
+  </si>
+  <si>
+    <t>GIY05_RS08325</t>
+  </si>
+  <si>
+    <t>GIY05_RS08320</t>
+  </si>
+  <si>
+    <t>GIY05_RS08310</t>
+  </si>
+  <si>
+    <t>GIY05_RS07525</t>
+  </si>
+  <si>
+    <t>GIY05_RS07500</t>
+  </si>
+  <si>
+    <t>GIY05_RS07240</t>
+  </si>
+  <si>
+    <t>GIY05_RS07115</t>
+  </si>
+  <si>
+    <t>GIY05_RS06505</t>
+  </si>
+  <si>
+    <t>GIY05_RS06455</t>
+  </si>
+  <si>
+    <t>GIY05_RS06425</t>
+  </si>
+  <si>
+    <t>GIY05_RS06405</t>
+  </si>
+  <si>
+    <t>GIY05_RS04410</t>
+  </si>
+  <si>
+    <t>GIY05_RS04395</t>
+  </si>
+  <si>
+    <t>GIY05_RS04380</t>
+  </si>
+  <si>
+    <t>GIY05_RS04370</t>
+  </si>
+  <si>
+    <t>GIY05_RS04365</t>
+  </si>
+  <si>
+    <t>GIY05_RS04360</t>
+  </si>
+  <si>
+    <t>GIY05_RS04350</t>
+  </si>
+  <si>
+    <t>GIY05_RS04345</t>
+  </si>
+  <si>
+    <t>GIY05_RS04340</t>
+  </si>
+  <si>
+    <t>GIY05_RS04335</t>
+  </si>
+  <si>
+    <t>GIY05_RS04330</t>
+  </si>
+  <si>
+    <t>GIY05_RS04325</t>
+  </si>
+  <si>
+    <t>GIY05_RS04320</t>
+  </si>
+  <si>
+    <t>GIY05_RS04315</t>
+  </si>
+  <si>
+    <t>GIY05_RS04310</t>
+  </si>
+  <si>
+    <t>GIY05_RS04305</t>
+  </si>
+  <si>
+    <t>GIY05_RS04300</t>
+  </si>
+  <si>
+    <t>GIY05_RS04295</t>
+  </si>
+  <si>
+    <t>GIY05_RS04290</t>
+  </si>
+  <si>
+    <t>GIY05_RS04285</t>
+  </si>
+  <si>
+    <t>GIY05_RS04280</t>
+  </si>
+  <si>
+    <t>GIY05_RS04275</t>
+  </si>
+  <si>
+    <t>GIY05_RS04270</t>
+  </si>
+  <si>
+    <t>GIY05_RS04265</t>
+  </si>
+  <si>
+    <t>GIY05_RS04260</t>
+  </si>
+  <si>
+    <t>GIY05_RS04190</t>
+  </si>
+  <si>
+    <t>GIY05_RS04170</t>
+  </si>
+  <si>
+    <t>GIY05_RS04165</t>
+  </si>
+  <si>
+    <t>GIY05_RS04115</t>
+  </si>
+  <si>
+    <t>GIY05_RS04105</t>
+  </si>
+  <si>
+    <t>GIY05_RS03645</t>
+  </si>
+  <si>
+    <t>GIY05_RS03615</t>
+  </si>
+  <si>
+    <t>GIY05_RS03600</t>
+  </si>
+  <si>
+    <t>GIY05_RS03525</t>
+  </si>
+  <si>
+    <t>GIY05_RS03500</t>
+  </si>
+  <si>
+    <t>GIY05_RS03495</t>
+  </si>
+  <si>
+    <t>GIY05_RS03485</t>
+  </si>
+  <si>
+    <t>GIY05_RS03480</t>
+  </si>
+  <si>
+    <t>GIY05_RS03425</t>
+  </si>
+  <si>
+    <t>GIY05_RS03420</t>
+  </si>
+  <si>
+    <t>GIY05_RS03235</t>
+  </si>
+  <si>
+    <t>GIY05_RS03225</t>
+  </si>
+  <si>
+    <t>GIY05_RS03220</t>
+  </si>
+  <si>
+    <t>GIY05_RS03210</t>
+  </si>
+  <si>
+    <t>GIY05_RS03205</t>
+  </si>
+  <si>
+    <t>GIY05_RS03200</t>
+  </si>
+  <si>
+    <t>GIY05_RS03195</t>
+  </si>
+  <si>
+    <t>GIY05_RS03190</t>
+  </si>
+  <si>
+    <t>GIY05_RS03185</t>
+  </si>
+  <si>
+    <t>GIY05_RS03170</t>
+  </si>
+  <si>
+    <t>GIY05_RS01420</t>
+  </si>
+  <si>
+    <t>GIY05_RS01320</t>
+  </si>
+  <si>
+    <t>GIY05_RS00475</t>
+  </si>
+  <si>
+    <t>GIY05_RS00450</t>
+  </si>
+  <si>
+    <t>GIY05_RS00445</t>
+  </si>
+  <si>
+    <t>GIY05_RS00440</t>
+  </si>
+  <si>
+    <t>GIY05_RS00435</t>
+  </si>
+  <si>
+    <t>GIY05_RS00395</t>
+  </si>
+  <si>
+    <t>GIY05_RS00395_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS00435_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS00440_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS00445_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS00450_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS00475_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS01320_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS01420_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03170_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03185_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03190_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03195_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03200_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03205_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03210_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03220_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03225_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03235_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03420_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03425_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS03480_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS03485_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS03495_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS03500_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS03525_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS03600_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS03615_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS03645_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04105_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04115_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04165_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04170_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04190_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS04260_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04265_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04270_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04275_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04280_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04285_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04290_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04295_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04300_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04305_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04310_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04315_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04320_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04325_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04330_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04335_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04340_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04345_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04350_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04360_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04365_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04370_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04380_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04395_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS04410_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS06405_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS06425_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS06455_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS06505_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS07115_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS07240_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS07500_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS07525_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS08310_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS08320_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS08325_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS08325_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS08330_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS08335_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS08375_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS08555_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS08560_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS08770_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS08835_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS08860_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS08900_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS09390_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS09665_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS09675_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS09820_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS09825_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS09835_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS09840_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS09850_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS10325_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS10530_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS11180_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS11920_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS11965_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS12010_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS12370_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS12830_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS12835_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS12840_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS12850_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS12870_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS12880_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS12900_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS13050_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS13060_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS13065_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS13090_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS13590_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS13685_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS14340_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS14345_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS14355_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS15615_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS15625_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS17255_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS17515_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS17610_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS17875_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS18120_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS18125_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS18130_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS18150_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS18275_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS18520_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS18765_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS19130_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS19380_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS19460_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS19465_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS19860_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS20425_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS20515_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21210_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21490_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21680_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21685_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21695_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21700_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21705_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21780_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21785_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21790_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21810_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21815_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21820_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS21825_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS22240_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS22280_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS22310_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS22435_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS22440_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS22645_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS23240_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS23370_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS23920_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS23920_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS23925_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS23925_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS24420_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS24450_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS24505_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS24815_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS24825_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25360_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25365_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25515_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25550_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS25555_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS25640_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25645_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25650_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25655_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25660_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25665_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25670_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25675_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25680_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25685_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25695_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25700_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25705_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25710_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25715_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25720_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25725_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25730_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25735_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS25735_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25750_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS25750_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25755_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS25755_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25760_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25765_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS25765_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25770_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25775_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS25785_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25795_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25800_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25810_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25815_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25830_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25835_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25840_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25850_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25855_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25860_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25865_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25870_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25880_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25885_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25890_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25895_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25900_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25905_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25910_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25915_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25920_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25925_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25930_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25935_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25940_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25945_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25950_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25955_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25960_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS25995_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26000_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26000_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS26005_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26020_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26025_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26035_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26045_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26050_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26055_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26060_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26075_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26080_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26085_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26090_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26095_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26100_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26105_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26110_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26115_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26120_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26125_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26150_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26165_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26170_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS26220_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS26225_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26230_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS26230_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26385_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS26460_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26680_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26685_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26725_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26780_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26875_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26915_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS26915_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS26920_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS26925_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS26990_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS27260_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS27260_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS27335_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS27340_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS27370_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS27890_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS28925_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS28965_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS28970_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS29060_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS29385_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS29565_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS29575_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS29605_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS30320_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS30325_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS30845_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS31520_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS31655_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS32040_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS32045_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS32050_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS32070_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS32075_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS32085_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS32090_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS32325_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS32600_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS32830_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS33320_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS33325_sense</t>
+  </si>
+  <si>
+    <t>GIY05_RS33735_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS33955_antis</t>
+  </si>
+  <si>
+    <t>GIY05_RS34340_antis</t>
+  </si>
+  <si>
+    <t>NewNumbering</t>
+  </si>
+  <si>
+    <t>NewNumberingStranded</t>
   </si>
 </sst>
 </file>
@@ -3318,10 +5091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L7:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3334,7 +5107,7 @@
     <col min="6" max="6" width="79.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3353,8 +5126,14 @@
       <c r="F1" s="7" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3373,8 +5152,14 @@
       <c r="F2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3393,8 +5178,14 @@
       <c r="F3" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3413,8 +5204,14 @@
       <c r="F4" s="3" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3433,8 +5230,14 @@
       <c r="F5" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3453,8 +5256,14 @@
       <c r="F6" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3473,8 +5282,14 @@
       <c r="F7" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3493,8 +5308,14 @@
       <c r="F8" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3513,8 +5334,14 @@
       <c r="F9" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -3533,8 +5360,14 @@
       <c r="F10" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3553,8 +5386,14 @@
       <c r="F11" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3573,8 +5412,14 @@
       <c r="F12" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -3593,8 +5438,14 @@
       <c r="F13" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3613,8 +5464,14 @@
       <c r="F14" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -3633,8 +5490,14 @@
       <c r="F15" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -3653,8 +5516,14 @@
       <c r="F16" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -3673,8 +5542,14 @@
       <c r="F17" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3693,8 +5568,14 @@
       <c r="F18" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3713,8 +5594,14 @@
       <c r="F19" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3733,8 +5620,14 @@
       <c r="F20" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3753,8 +5646,14 @@
       <c r="F21" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3773,8 +5672,14 @@
       <c r="F22" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3793,8 +5698,14 @@
       <c r="F23" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3813,8 +5724,14 @@
       <c r="F24" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3833,8 +5750,14 @@
       <c r="F25" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3853,8 +5776,14 @@
       <c r="F26" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3873,8 +5802,14 @@
       <c r="F27" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3893,8 +5828,14 @@
       <c r="F28" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3913,8 +5854,14 @@
       <c r="F29" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -3933,8 +5880,14 @@
       <c r="F30" s="3" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3953,8 +5906,14 @@
       <c r="F31" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3973,8 +5932,14 @@
       <c r="F32" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3993,8 +5958,14 @@
       <c r="F33" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4013,8 +5984,14 @@
       <c r="F34" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -4033,8 +6010,14 @@
       <c r="F35" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4053,8 +6036,14 @@
       <c r="F36" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -4073,8 +6062,14 @@
       <c r="F37" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4093,8 +6088,14 @@
       <c r="F38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4113,8 +6114,14 @@
       <c r="F39" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4133,8 +6140,14 @@
       <c r="F40" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4153,8 +6166,14 @@
       <c r="F41" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4173,8 +6192,14 @@
       <c r="F42" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4193,8 +6218,14 @@
       <c r="F43" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4213,8 +6244,14 @@
       <c r="F44" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4233,8 +6270,14 @@
       <c r="F45" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4253,8 +6296,14 @@
       <c r="F46" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4273,8 +6322,14 @@
       <c r="F47" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4293,8 +6348,14 @@
       <c r="F48" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4313,8 +6374,14 @@
       <c r="F49" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -4333,8 +6400,14 @@
       <c r="F50" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -4353,8 +6426,14 @@
       <c r="F51" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -4373,8 +6452,14 @@
       <c r="F52" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -4393,8 +6478,14 @@
       <c r="F53" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -4413,8 +6504,14 @@
       <c r="F54" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -4433,8 +6530,14 @@
       <c r="F55" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -4453,8 +6556,14 @@
       <c r="F56" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -4473,8 +6582,14 @@
       <c r="F57" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -4493,8 +6608,14 @@
       <c r="F58" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -4513,8 +6634,14 @@
       <c r="F59" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +6660,14 @@
       <c r="F60" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -4553,8 +6686,14 @@
       <c r="F61" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4573,8 +6712,14 @@
       <c r="F62" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -4593,8 +6738,14 @@
       <c r="F63" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -4613,8 +6764,14 @@
       <c r="F64" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -4633,8 +6790,14 @@
       <c r="F65" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -4653,8 +6816,14 @@
       <c r="F66" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>66</v>
       </c>
@@ -4673,8 +6842,14 @@
       <c r="F67" s="4" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -4693,8 +6868,14 @@
       <c r="F68" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
@@ -4713,8 +6894,14 @@
       <c r="F69" s="5" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
@@ -4733,8 +6920,14 @@
       <c r="F70" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
@@ -4753,8 +6946,14 @@
       <c r="F71" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -4773,8 +6972,14 @@
       <c r="F72" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -4793,8 +6998,14 @@
       <c r="F73" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
@@ -4813,8 +7024,14 @@
       <c r="F74" s="5" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -4833,8 +7050,14 @@
       <c r="F75" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -4853,8 +7076,14 @@
       <c r="F76" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -4873,8 +7102,14 @@
       <c r="F77" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4893,8 +7128,14 @@
       <c r="F78" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -4913,8 +7154,14 @@
       <c r="F79" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -4933,8 +7180,14 @@
       <c r="F80" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4953,8 +7206,14 @@
       <c r="F81" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -4973,8 +7232,14 @@
       <c r="F82" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -4993,8 +7258,14 @@
       <c r="F83" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>83</v>
       </c>
@@ -5013,8 +7284,14 @@
       <c r="F84" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>84</v>
       </c>
@@ -5033,8 +7310,14 @@
       <c r="F85" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>85</v>
       </c>
@@ -5053,8 +7336,14 @@
       <c r="F86" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>86</v>
       </c>
@@ -5073,8 +7362,14 @@
       <c r="F87" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
@@ -5093,8 +7388,14 @@
       <c r="F88" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -5113,8 +7414,14 @@
       <c r="F89" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>972</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>89</v>
       </c>
@@ -5133,8 +7440,14 @@
       <c r="F90" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>973</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -5153,8 +7466,14 @@
       <c r="F91" s="9" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>974</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
@@ -5173,8 +7492,14 @@
       <c r="F92" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>975</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -5193,8 +7518,14 @@
       <c r="F93" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>976</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -5213,8 +7544,14 @@
       <c r="F94" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>977</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -5233,8 +7570,14 @@
       <c r="F95" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>978</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -5253,8 +7596,14 @@
       <c r="F96" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>979</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>96</v>
       </c>
@@ -5273,8 +7622,14 @@
       <c r="F97" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>980</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -5293,8 +7648,14 @@
       <c r="F98" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>981</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -5313,8 +7674,14 @@
       <c r="F99" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>982</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -5333,8 +7700,14 @@
       <c r="F100" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>983</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -5353,8 +7726,14 @@
       <c r="F101" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>984</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -5373,8 +7752,14 @@
       <c r="F102" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>985</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -5393,8 +7778,14 @@
       <c r="F103" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>986</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
@@ -5413,8 +7804,14 @@
       <c r="F104" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>987</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5433,8 +7830,14 @@
       <c r="F105" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>988</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -5453,8 +7856,14 @@
       <c r="F106" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>989</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -5473,8 +7882,14 @@
       <c r="F107" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>990</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -5493,8 +7908,14 @@
       <c r="F108" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>991</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
@@ -5513,8 +7934,14 @@
       <c r="F109" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>992</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -5533,8 +7960,14 @@
       <c r="F110" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>993</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -5553,8 +7986,14 @@
       <c r="F111" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>994</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -5573,8 +8012,14 @@
       <c r="F112" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>995</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -5593,8 +8038,14 @@
       <c r="F113" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>996</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -5613,8 +8064,14 @@
       <c r="F114" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" t="s">
+        <v>997</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -5633,8 +8090,14 @@
       <c r="F115" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" t="s">
+        <v>998</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -5653,8 +8116,14 @@
       <c r="F116" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" t="s">
+        <v>999</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -5673,8 +8142,14 @@
       <c r="F117" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
@@ -5693,8 +8168,14 @@
       <c r="F118" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -5713,8 +8194,14 @@
       <c r="F119" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -5733,8 +8220,14 @@
       <c r="F120" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -5753,8 +8246,14 @@
       <c r="F121" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -5773,8 +8272,14 @@
       <c r="F122" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -5793,8 +8298,14 @@
       <c r="F123" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -5813,8 +8324,14 @@
       <c r="F124" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -5833,8 +8350,14 @@
       <c r="F125" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -5853,8 +8376,14 @@
       <c r="F126" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -5873,8 +8402,14 @@
       <c r="F127" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -5893,8 +8428,14 @@
       <c r="F128" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -5913,8 +8454,14 @@
       <c r="F129" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
@@ -5933,8 +8480,14 @@
       <c r="F130" s="5" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -5953,8 +8506,14 @@
       <c r="F131" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -5973,8 +8532,14 @@
       <c r="F132" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -5993,8 +8558,14 @@
       <c r="F133" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
@@ -6013,8 +8584,14 @@
       <c r="F134" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
@@ -6033,8 +8610,14 @@
       <c r="F135" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
@@ -6053,8 +8636,14 @@
       <c r="F136" s="5" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
@@ -6073,8 +8662,14 @@
       <c r="F137" s="5" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
@@ -6093,8 +8688,14 @@
       <c r="F138" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>138</v>
       </c>
@@ -6113,8 +8714,14 @@
       <c r="F139" s="5" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
@@ -6133,8 +8740,14 @@
       <c r="F140" s="5" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
@@ -6153,8 +8766,14 @@
       <c r="F141" s="5" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
@@ -6173,8 +8792,14 @@
       <c r="F142" s="5" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
@@ -6193,8 +8818,14 @@
       <c r="F143" s="5" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
@@ -6213,8 +8844,14 @@
       <c r="F144" s="5" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
@@ -6233,8 +8870,14 @@
       <c r="F145" s="5" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6253,8 +8896,14 @@
       <c r="F146" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
@@ -6273,8 +8922,14 @@
       <c r="F147" s="2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6293,8 +8948,14 @@
       <c r="F148" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6313,8 +8974,14 @@
       <c r="F149" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6333,8 +9000,14 @@
       <c r="F150" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6353,8 +9026,14 @@
       <c r="F151" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6373,8 +9052,14 @@
       <c r="F152" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6393,8 +9078,14 @@
       <c r="F153" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6413,8 +9104,14 @@
       <c r="F154" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -6433,8 +9130,14 @@
       <c r="F155" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -6453,8 +9156,14 @@
       <c r="F156" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
@@ -6473,8 +9182,14 @@
       <c r="F157" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -6493,8 +9208,14 @@
       <c r="F158" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -6513,8 +9234,14 @@
       <c r="F159" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>159</v>
       </c>
@@ -6533,8 +9260,14 @@
       <c r="F160" s="4" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
@@ -6553,8 +9286,14 @@
       <c r="F161" s="5" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
@@ -6573,8 +9312,14 @@
       <c r="F162" s="5" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -6593,8 +9338,14 @@
       <c r="F163" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -6613,8 +9364,14 @@
       <c r="F164" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -6633,8 +9390,14 @@
       <c r="F165" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -6653,8 +9416,14 @@
       <c r="F166" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -6673,8 +9442,14 @@
       <c r="F167" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>167</v>
       </c>
@@ -6693,8 +9468,14 @@
       <c r="F168" s="4" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
@@ -6713,8 +9494,14 @@
       <c r="F169" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>169</v>
       </c>
@@ -6733,8 +9520,14 @@
       <c r="F170" s="4" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
@@ -6753,8 +9546,14 @@
       <c r="F171" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
@@ -6773,8 +9572,14 @@
       <c r="F172" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>172</v>
       </c>
@@ -6793,8 +9598,14 @@
       <c r="F173" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
@@ -6813,8 +9624,14 @@
       <c r="F174" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>174</v>
       </c>
@@ -6833,8 +9650,14 @@
       <c r="F175" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
@@ -6853,8 +9676,14 @@
       <c r="F176" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -6873,8 +9702,14 @@
       <c r="F177" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -6893,8 +9728,14 @@
       <c r="F178" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -6913,8 +9754,14 @@
       <c r="F179" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -6933,8 +9780,14 @@
       <c r="F180" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -6953,8 +9806,14 @@
       <c r="F181" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
@@ -6973,8 +9832,14 @@
       <c r="F182" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -6993,8 +9858,14 @@
       <c r="F183" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
@@ -7013,8 +9884,14 @@
       <c r="F184" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7033,8 +9910,14 @@
       <c r="F185" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7053,8 +9936,14 @@
       <c r="F186" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7073,8 +9962,14 @@
       <c r="F187" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7093,8 +9988,14 @@
       <c r="F188" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>188</v>
       </c>
@@ -7113,8 +10014,14 @@
       <c r="F189" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7133,8 +10040,14 @@
       <c r="F190" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
@@ -7153,8 +10066,14 @@
       <c r="F191" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>191</v>
       </c>
@@ -7173,8 +10092,14 @@
       <c r="F192" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7193,8 +10118,14 @@
       <c r="F193" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>193</v>
       </c>
@@ -7213,8 +10144,14 @@
       <c r="F194" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7233,8 +10170,14 @@
       <c r="F195" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7253,8 +10196,14 @@
       <c r="F196" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7273,8 +10222,14 @@
       <c r="F197" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>197</v>
       </c>
@@ -7293,8 +10248,14 @@
       <c r="F198" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
@@ -7313,8 +10274,14 @@
       <c r="F199" s="3" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7333,8 +10300,14 @@
       <c r="F200" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7353,8 +10326,14 @@
       <c r="F201" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>201</v>
       </c>
@@ -7373,8 +10352,14 @@
       <c r="F202" s="6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>202</v>
       </c>
@@ -7393,8 +10378,14 @@
       <c r="F203" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>203</v>
       </c>
@@ -7413,8 +10404,14 @@
       <c r="F204" s="6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7433,8 +10430,14 @@
       <c r="F205" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>205</v>
       </c>
@@ -7453,8 +10456,14 @@
       <c r="F206" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>206</v>
       </c>
@@ -7473,8 +10482,14 @@
       <c r="F207" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7493,8 +10508,14 @@
       <c r="F208" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7513,8 +10534,14 @@
       <c r="F209" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7533,8 +10560,14 @@
       <c r="F210" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>210</v>
       </c>
@@ -7553,8 +10586,14 @@
       <c r="F211" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>211</v>
       </c>
@@ -7573,8 +10612,14 @@
       <c r="F212" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7593,8 +10638,14 @@
       <c r="F213" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>213</v>
       </c>
@@ -7611,8 +10662,14 @@
       <c r="F214" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>214</v>
       </c>
@@ -7631,8 +10688,14 @@
       <c r="F215" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>215</v>
       </c>
@@ -7651,8 +10714,14 @@
       <c r="F216" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -7671,8 +10740,14 @@
       <c r="F217" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
@@ -7691,8 +10766,14 @@
       <c r="F218" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>218</v>
       </c>
@@ -7711,8 +10792,14 @@
       <c r="F219" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>219</v>
       </c>
@@ -7731,8 +10818,14 @@
       <c r="F220" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
@@ -7751,8 +10844,14 @@
       <c r="F221" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>221</v>
       </c>
@@ -7771,8 +10870,14 @@
       <c r="F222" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>222</v>
       </c>
@@ -7791,8 +10896,14 @@
       <c r="F223" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7811,8 +10922,14 @@
       <c r="F224" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G224" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7831,8 +10948,14 @@
       <c r="F225" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G225" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>225</v>
       </c>
@@ -7851,8 +10974,14 @@
       <c r="F226" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G226" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>226</v>
       </c>
@@ -7871,8 +11000,14 @@
       <c r="F227" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G227" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>227</v>
       </c>
@@ -7891,8 +11026,14 @@
       <c r="F228" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G228" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -7911,8 +11052,14 @@
       <c r="F229" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G229" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -7931,8 +11078,14 @@
       <c r="F230" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G230" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>230</v>
       </c>
@@ -7951,8 +11104,14 @@
       <c r="F231" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G231" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>231</v>
       </c>
@@ -7971,8 +11130,14 @@
       <c r="F232" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G232" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>232</v>
       </c>
@@ -7991,8 +11156,14 @@
       <c r="F233" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G233" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -8011,8 +11182,14 @@
       <c r="F234" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G234" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8031,8 +11208,14 @@
       <c r="F235" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G235" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8051,8 +11234,14 @@
       <c r="F236" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G236" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8071,8 +11260,14 @@
       <c r="F237" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G237" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>237</v>
       </c>
@@ -8091,8 +11286,14 @@
       <c r="F238" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G238" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8111,8 +11312,14 @@
       <c r="F239" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G239" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>239</v>
       </c>
@@ -8131,8 +11338,14 @@
       <c r="F240" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G240" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
@@ -8151,8 +11364,14 @@
       <c r="F241" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G241" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8171,8 +11390,14 @@
       <c r="F242" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G242" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>242</v>
       </c>
@@ -8191,8 +11416,14 @@
       <c r="F243" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G243" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8211,8 +11442,14 @@
       <c r="F244" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G244" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>244</v>
       </c>
@@ -8231,8 +11468,14 @@
       <c r="F245" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G245" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>245</v>
       </c>
@@ -8251,8 +11494,14 @@
       <c r="F246" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G246" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8271,8 +11520,14 @@
       <c r="F247" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G247" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8291,8 +11546,14 @@
       <c r="F248" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G248" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8311,8 +11572,14 @@
       <c r="F249" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G249" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8331,8 +11598,14 @@
       <c r="F250" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G250" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8351,8 +11624,14 @@
       <c r="F251" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G251" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8371,8 +11650,14 @@
       <c r="F252" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G252" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>252</v>
       </c>
@@ -8391,8 +11676,14 @@
       <c r="F253" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G253" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>253</v>
       </c>
@@ -8411,8 +11702,14 @@
       <c r="F254" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G254" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>254</v>
       </c>
@@ -8431,8 +11728,14 @@
       <c r="F255" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G255" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8451,8 +11754,14 @@
       <c r="F256" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G256" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8471,8 +11780,14 @@
       <c r="F257" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G257" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>257</v>
       </c>
@@ -8491,8 +11806,14 @@
       <c r="F258" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G258" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>258</v>
       </c>
@@ -8511,8 +11832,14 @@
       <c r="F259" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G259" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8531,8 +11858,14 @@
       <c r="F260" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G260" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8551,8 +11884,14 @@
       <c r="F261" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G261" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8571,8 +11910,14 @@
       <c r="F262" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G262" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8591,8 +11936,14 @@
       <c r="F263" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G263" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8611,8 +11962,14 @@
       <c r="F264" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G264" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>264</v>
       </c>
@@ -8631,8 +11988,14 @@
       <c r="F265" s="4" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G265" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8651,8 +12014,14 @@
       <c r="F266" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G266" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>266</v>
       </c>
@@ -8671,8 +12040,14 @@
       <c r="F267" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G267" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8691,8 +12066,14 @@
       <c r="F268" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G268" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8711,8 +12092,14 @@
       <c r="F269" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8731,8 +12118,14 @@
       <c r="F270" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G270" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8751,8 +12144,14 @@
       <c r="F271" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G271" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8771,8 +12170,14 @@
       <c r="F272" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G272" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>272</v>
       </c>
@@ -8791,8 +12196,14 @@
       <c r="F273" s="5" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G273" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8811,8 +12222,14 @@
       <c r="F274" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G274" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>274</v>
       </c>
@@ -8831,8 +12248,14 @@
       <c r="F275" s="5" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G275" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>275</v>
       </c>
@@ -8851,8 +12274,14 @@
       <c r="F276" s="5" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G276" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8871,8 +12300,14 @@
       <c r="F277" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G277" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8891,8 +12326,14 @@
       <c r="F278" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G278" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8911,8 +12352,14 @@
       <c r="F279" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G279" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8931,8 +12378,14 @@
       <c r="F280" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G280" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8951,8 +12404,14 @@
       <c r="F281" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G281" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8971,8 +12430,14 @@
       <c r="F282" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G282" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>282</v>
       </c>
@@ -8991,8 +12456,14 @@
       <c r="F283" s="2" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G283" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -9011,8 +12482,14 @@
       <c r="F284" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G284" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -9031,8 +12508,14 @@
       <c r="F285" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G285" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -9051,8 +12534,14 @@
       <c r="F286" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G286" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -9071,8 +12560,14 @@
       <c r="F287" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G287" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
         <v>287</v>
       </c>
@@ -9091,8 +12586,14 @@
       <c r="F288" s="4" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G288" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -9111,8 +12612,14 @@
       <c r="F289" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G289" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -9131,8 +12638,14 @@
       <c r="F290" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G290" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>290</v>
       </c>
@@ -9151,8 +12664,14 @@
       <c r="F291" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -9171,8 +12690,14 @@
       <c r="F292" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G292" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>292</v>
       </c>
@@ -9191,8 +12716,14 @@
       <c r="F293" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G293" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -9211,8 +12742,14 @@
       <c r="F294" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G294" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -9231,8 +12768,14 @@
       <c r="F295" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G295" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -9251,8 +12794,14 @@
       <c r="F296" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G296" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -9271,8 +12820,14 @@
       <c r="F297" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G297" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -9291,8 +12846,14 @@
       <c r="F298" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G298" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9311,8 +12872,14 @@
       <c r="F299" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G299" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9331,8 +12898,14 @@
       <c r="F300" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G300" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9351,8 +12924,15 @@
       <c r="F301" t="s">
         <v>338</v>
       </c>
+      <c r="G301" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1560</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>